--- a/biology/Zoologie/Damier_(papillon)/Damier_(papillon).xlsx
+++ b/biology/Zoologie/Damier_(papillon)/Damier_(papillon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme Damier est un nom vernaculaire ambigu qui désigne en français plusieurs espèces de papillons appartenant aux genres Euphydryas, Melitaea[1] et Chlosyne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme Damier est un nom vernaculaire ambigu qui désigne en français plusieurs espèces de papillons appartenant aux genres Euphydryas, Melitaea et Chlosyne.
 Ces trois genres font partie de la famille des Nymphalidae, de la sous-famille des Nymphalinae et de la tribu des Melitaeini.
 Ils sont principalement répandus dans l'hémisphère nord.
 Les Damiers sont des papillons de taille petite à moyenne, avec le dessus des ailes généralement fauve, rouge et/ou blanchâtre, orné d'un quadrillage noir plus ou moins épais.
@@ -516,22 +528,95 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dans le genre Euphydryas
-Damier de la succise ou Damier des marais – Euphydryas aurinia
+          <t>Dans le genre Euphydryas</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Damier de la succise ou Damier des marais – Euphydryas aurinia
 Damier des knauties ou Damier de Godart – Euphydryas desfontainii
 Damier du frêne – Euphydryas maturna
 Damier du chèvrefeuille ou Damier rouge – Euphydryas intermedia
 Damier de l'alchémille ou Damier des alpages – Euphydryas cynthia
-Damier boréal – Euphydryas iduna
-Dans le genre Melitaea
-Damier du plantain ou Mélitée du plantain – Melitaea cinxia
+Damier boréal – Euphydryas iduna</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Damier_(papillon)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_(papillon)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Dans le genre Melitaea</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Damier du plantain ou Mélitée du plantain – Melitaea cinxia
 Damier orangé ou Mélitée orangée – Melitaea didyma
 Grand damier ou Mélitée des centaurées – Melitaea phoebe
 Damier noir ou Mélitée noirâtre – Melitaea diamina
 Damier Athalie ou Mélitée du mélampyre – Melitaea athalia
-Damier Aurélie ou Mélitée des digitales – Melitaea aurelia
-Dans le genre Chlosyne[2]
-Damier gorgone – Chlosyne gorgone
+Damier Aurélie ou Mélitée des digitales – Melitaea aurelia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Damier_(papillon)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_(papillon)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dans le genre Chlosyne[2]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Damier gorgone – Chlosyne gorgone
 Damier argenté – Chlosyne nycteis
 Damier de Harris – Chlosyne harrisii
 </t>
